--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -575,7 +575,7 @@
         <v>45488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45271</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>45867</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45966.34274305555</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45223</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45195</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45204</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44935</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45492</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>46041.44153935185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>46041.44454861111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45204</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45609</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45490.63929398148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45705</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>45646</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45789.46872685185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>45882</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45841.55677083333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45672</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45890.66075231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45960.605</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>46008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>45300</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44469</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>46030.44587962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>46052.61299768519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45351</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45133.66758101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>45939.38631944444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45785</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44867</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>46008.59363425926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45787</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>46008.68391203704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45531</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45826</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>45833</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>45937.57505787037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45947.45513888889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>46000.55846064815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45832</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>45336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44858</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>45832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45901.59108796297</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>45902.6065162037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>45904.68600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45918.69835648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>45937.5655787037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>45492.34811342593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45960.60822916667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>45966.45024305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>46041.40795138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>46003.67215277778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>46052.56299768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44287</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44784.65543981481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44623</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44453.46967592592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44355</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44417</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44362.68665509259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44622.6487037037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44742.62271990741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44270.45215277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>44460.52704861111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44629.3184837963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44496</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44473.93685185185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44727</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>44300</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>44469</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44466</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44564</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44322</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>44477</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44838</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44620.40868055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44617</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>44466.55795138889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>44307</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44484.46385416666</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>44361.46637731481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44424.71729166667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44720.54599537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44655.44512731482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44838.94439814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44847.62055555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44564</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44369.63069444444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44526</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44722.33388888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44735.4421412037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44497</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44497</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44481.41222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>45212.60275462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44729.58356481481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44545.36940972223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44888</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>45484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>45299.63049768518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>45229.48306712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45595.49896990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45582</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>45314.49222222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45757.54954861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45306</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45736.57871527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>45749.37135416667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>45209.64740740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44446.78168981482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45490.64978009259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45353.41157407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44987.37292824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44903</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44952.38577546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44896.68393518519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45884.63340277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45884.66097222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45748.59069444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45219</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45799</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>45758.60162037037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>45800.46965277778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>45441.45840277777</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45511</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>45222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45244</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45264.5270949074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45887.5375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>45274.47642361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45810.52444444445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>45407.62380787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45056</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>45782</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45812.37025462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45812.42304398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45812.58365740741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44315.41582175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45894.44197916667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>45817.4262962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45709</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45894.49417824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45894.53300925926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45817.45034722222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45817.58361111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45894.47822916666</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45896.51028935185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45099</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45223.5884375</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45477.59960648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45818.44871527778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45819.63112268518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45818.6300462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45610.6875462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45786.65040509259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45819.60303240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45903.54532407408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45903.4290625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45903.42372685186</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45902.35822916667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45903.48930555556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45621.62524305555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44308.5053587963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45812.45170138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44343</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45601.33789351852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45062.66613425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45904.53831018518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44987.41359953704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45744.36179398148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44313.60207175926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45793.68313657407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44854.63668981481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45149.51068287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45915.57738425926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45915.57792824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45915.51239583334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45915.40027777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45915.57677083334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45915.58392361111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45915.40188657407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45826.44121527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45912.5147337963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45916.77120370371</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45678.68400462963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45226.51766203704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45919.47872685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44844</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45918.70020833334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44377</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>45923.58125</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45636.3859837963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45833.43884259259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45757.55929398148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44951.36688657408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45925.31876157408</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45267.9268287037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45223.6365625</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44788</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45925.56084490741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45925.37229166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45925.37534722222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45925.59936342593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44985.67237268519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45925.36988425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44460.86221064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>45301</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>45233.58359953704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44644.48491898148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45834.35421296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45316.62863425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45729.33743055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45135</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45481.45445601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45219.55793981482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45836</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45159</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45932.5853125</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45422.48225694444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45222.45090277777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45839.93006944445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45839.93033564815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45936.42172453704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45841.41704861111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45840.43072916667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45936.45788194444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45936.38270833333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>45840.62648148148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45939.38850694444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44914</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45705.73394675926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>45840.6295949074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45647.56972222222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44237</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45938.66181712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>45138.3071412037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45841.39582175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45938.43825231482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45705.56287037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44350</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>45152.60333333333</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45698.43287037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45842.57081018519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44644.56325231482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45842.66791666667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45842.47619212963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45842.51953703703</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45091</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44644.61106481482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45353.38880787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>45848.6125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45848.6534837963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45848.66167824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>45848.73256944444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45848.66987268518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45848.62001157407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45848.64788194445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45848.67424768519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45947.45381944445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45947.44309027777</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45849.6330787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45947.43479166667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45947.45197916667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>45950.42378472222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>45950.42725694444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45744.36232638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45859</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45862.62653935186</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45862.6353125</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45862.65081018519</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>45862.64581018518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45217.56513888889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>45697</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>45954.47804398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21223,7 +21223,7 @@
         <v>45954.47844907407</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>45870.38728009259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45956.86853009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>45736.58362268518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45954</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>45870</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>45956.3562037037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>45278</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>45755.50215277778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45875.62668981482</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45209.64077546296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>45877.53644675926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44831.35561342593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45877.56829861111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45103.33896990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>45877.64424768519</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45877.54615740741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>45960.41716435185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45960.32577546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45960.4140625</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45961.37528935185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45881.55274305555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45881.56083333334</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45960.34216435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>45965.61920138889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>45964.5500925926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>45831.58921296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>45628.62292824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45965.63420138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45965.64862268518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45881.54469907407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45881.56803240741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45411</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45966.54658564815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45966.61081018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45705.72799768519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45966.61395833334</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45223.62680555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45966.61878472222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45966.42188657408</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>45968.36422453704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>45971.41472222222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>45971.45525462963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45757.57952546296</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>45884.47355324074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45974.64894675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>45975.37766203703</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>45974.60144675926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>45975.38001157407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>45974.60431712963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>45975.36898148148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45887.54075231482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>45316.62592592592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45974.59688657407</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>45628.57388888889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45979.36299768519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45978.45585648148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45980.40871527778</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>45980.30490740741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>45692</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>46024.63174768518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>46024.51534722222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>45217.58891203703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>45986.56822916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45987.50958333333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>45986.52584490741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>45987.35487268519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>45986.58231481481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45987.54099537037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45757.38532407407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45987.51534722222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>45986.57303240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25546,7 +25546,7 @@
         <v>44875.36341435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45986.50476851852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45699</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45987.48171296297</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45986.56949074074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45988.52844907407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45988.4884375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45988.4934375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>46030.57034722222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45544.36310185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>46035.63864583334</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44382</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45040</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45993.35644675926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45610.58322916667</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44460</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44391</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>46034.42577546297</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45994</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45040.56190972222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45994.43018518519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>46037.47077546296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45695</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>44424</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>46022.60030092593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>46022.6519675926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>45593.33947916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>45593.31292824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>45239.37113425926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>45999.47630787037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>45834</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45374.67886574074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44351</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45999.64672453704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45180.34207175926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>44627</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45537.65519675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45826</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45586.58081018519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45645.48501157408</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45239</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>45072</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>45146</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45203.42181712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45593.67824074074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45453</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45206.39274305556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>46016</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45674.65692129629</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45113.84923611111</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45113.8637037037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45113.85704861111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45964.45186342593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45645.46608796297</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45982.44907407407</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45999.4887037037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45104.70399305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>45593.31915509259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>46041.54016203704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>45252.34607638889</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>45950.84275462963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29100,7 +29100,7 @@
         <v>46043.43420138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>46038</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>46019</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>45768</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45610.3468287037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>46022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>46036</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>46044.41059027778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45303</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>46044.45325231482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>46044.68712962963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45219.54077546296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>46044.37626157407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>46044</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45453.48988425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45159</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>46049.48833333333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>46049.700625</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>46049.56386574074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>45113.5812962963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>46048.36954861111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30379,7 +30379,7 @@
         <v>46049.46909722222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>45014.30054398148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>45688</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30550,7 +30550,7 @@
         <v>46009.46511574074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30607,7 +30607,7 @@
         <v>46050.73831018519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45678.42868055555</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>46050.47733796296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>46008.61351851852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>46008.64555555556</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         <v>46008.65450231481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>46008.67211805555</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>46008.60548611111</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>46050.46118055555</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>46050.46217592592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>46024</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>46024</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>46050.47840277778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>46050</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>46024</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>46008.57913194445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>46008.64875</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>46008.67696759259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31638,7 +31638,7 @@
         <v>44917.40038194445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31700,7 +31700,7 @@
         <v>46042</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>46038</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>46008.74334490741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31871,7 +31871,7 @@
         <v>46009.85609953704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31928,7 +31928,7 @@
         <v>46010.47516203704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31985,7 +31985,7 @@
         <v>46052.42724537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32042,7 +32042,7 @@
         <v>46010.50851851852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32099,7 +32099,7 @@
         <v>46027.80430555555</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32156,7 +32156,7 @@
         <v>46013.43195601852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32213,7 +32213,7 @@
         <v>46043</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>44641</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44813.60177083333</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>46056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>46057.67493055556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>46034.52905092593</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>46057.56788194444</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>46056</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>46034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>46022</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>46059.3959375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45638.39675925926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>45638.39965277778</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>46048</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>46057</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>46041</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>45660</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>46058.47203703703</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45685.46236111111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45685.46390046296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45238.5996875</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45622.56038194444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45775</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45775</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45299.63410879629</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>44872.62795138889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45666.42952546296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33824,7 +33824,7 @@
         <v>45160.51721064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33881,7 +33881,7 @@
         <v>45565.53810185185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33938,7 +33938,7 @@
         <v>45565.54078703704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>45519.61466435185</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45748.58409722222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45203.40004629629</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45600.34721064815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45264.52465277778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44790.66212962963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45748.58792824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45062</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34543,7 +34543,7 @@
         <v>45544.3786574074</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>45615.43141203704</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45507.46103009259</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>44481.4037962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         <v>44460.85565972222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34828,7 +34828,7 @@
         <v>44354.6446875</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45099</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>45687.42143518518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>45222.44800925926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45757.57597222222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35123,7 +35123,7 @@
         <v>44753</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45076</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45490.64681712963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45544.35747685185</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45525.40091435185</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>45617.61476851852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45238</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44622.6445949074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>45758.59981481481</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>45647.56491898148</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         <v>44887.45185185185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35755,7 +35755,7 @@
         <v>45212.67149305555</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>44732.67958333333</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>44910.36798611111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>45610.73276620371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45699</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45699</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45628.47519675926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45610.34175925926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44448.52815972222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45554.42622685185</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45757.55321759259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         <v>45544.34504629629</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>44711</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45593.32871527778</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45561.40730324074</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45615.50483796297</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45096.4878125</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>44711.60145833333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36806,7 +36806,7 @@
         <v>45628</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36863,7 +36863,7 @@
         <v>45628</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>45628.47212962963</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36977,7 +36977,7 @@
         <v>44620</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45301.40552083333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>45776</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45783.60923611111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45782.45069444444</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45782.37519675926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44985.60604166667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45301.36821759259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>45561.40888888889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>45687.46100694445</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45784.59369212963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45440.45225694445</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45575.38193287037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45790.73627314815</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>45790.6377662037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>45251.42627314815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>45790.73072916667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>45266</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>45790.73469907408</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>45331.38175925926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>45793.43210648148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         <v>45692</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38266,7 +38266,7 @@
         <v>44536</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>45307</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45797.40101851852</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>45615.3990162037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45797.38252314815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -575,7 +575,7 @@
         <v>45488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45271</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>45867</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45966.34274305555</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45223</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45195</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45204</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44935</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45492</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>46041.44153935185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>46041.44454861111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45204</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>45609</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>45125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45490.63929398148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45705</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>45646</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45789.46872685185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>45882</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45841.55677083333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45672</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>45890.66075231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45960.605</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>46008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>45300</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>44469</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>46030.44587962963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>46052.61299768519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45351</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45133.66758101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>45939.38631944444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45785</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44867</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>46008.59363425926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45787</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>46008.68391203704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45531</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45826</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>45833</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>45937.57505787037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45947.45513888889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>46000.55846064815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>45832</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>45336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44858</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>45832</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45901.59108796297</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>45902.6065162037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>45904.68600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45918.69835648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>45937.5655787037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>45492.34811342593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45960.60822916667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>45966.45024305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>46041.40795138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>46003.67215277778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>46052.56299768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45160</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44287</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44784.65543981481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44623</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44453.46967592592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44355</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44417</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44362.68665509259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44622.6487037037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44742.62271990741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44270.45215277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>44460.52704861111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44629.3184837963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44496</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44473.93685185185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44727</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>44300</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>44469</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44466</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44564</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44322</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>44477</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44838</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44620.40868055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44617</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>44466.55795138889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>44307</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44484.46385416666</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>44361.46637731481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44424.71729166667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44720.54599537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44655.44512731482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44838.94439814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44847.62055555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44564</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44369.63069444444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44526</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44722.33388888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44735.4421412037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44497</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44497</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44481.41222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>45212.60275462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44729.58356481481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>44545.36940972223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>44888</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>45484</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>45299.63049768518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>45229.48306712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45595.49896990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45582</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>45314.49222222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45757.54954861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45306</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45736.57871527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>45749.37135416667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>45209.64740740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44446.78168981482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45490.64978009259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45353.41157407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44987.37292824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44903</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44952.38577546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44896.68393518519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45884.63340277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45884.66097222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45748.59069444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45219</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45799</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>45758.60162037037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>45800.46965277778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44424</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>45441.45840277777</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45511</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>45222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45244</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45264.5270949074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45887.5375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>45274.47642361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45810.52444444445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>45407.62380787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45056</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>45782</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45812.37025462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45812.42304398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45812.58365740741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44315.41582175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45894.44197916667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>45817.4262962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45709</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45894.49417824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45894.53300925926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45817.45034722222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45817.58361111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45894.47822916666</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45896.51028935185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45099</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45223.5884375</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45477.59960648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45818.44871527778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45819.63112268518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45818.6300462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45610.6875462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45786.65040509259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45819.60303240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45903.54532407408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45903.4290625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45903.42372685186</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45902.35822916667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45903.48930555556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45621.62524305555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44308.5053587963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45812.45170138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44343</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>45601.33789351852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>45062.66613425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45904.53831018518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44987.41359953704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45744.36179398148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44313.60207175926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45793.68313657407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44854.63668981481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45149.51068287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45915.57738425926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45915.57792824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45915.51239583334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45915.40027777778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45915.57677083334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45915.58392361111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45915.40188657407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45826.44121527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45912.5147337963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45916.77120370371</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45678.68400462963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45226.51766203704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45919.47872685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45840</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44844</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45918.70020833334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44377</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>45923.58125</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45636.3859837963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45833.43884259259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45757.55929398148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44951.36688657408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45925.31876157408</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45267.9268287037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45223.6365625</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44788</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45925.56084490741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45925.37229166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45925.37534722222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45925.59936342593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44985.67237268519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45925.36988425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44460.86221064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>45301</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>45233.58359953704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44644.48491898148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45834.35421296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45316.62863425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45729.33743055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45135</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45481.45445601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45219.55793981482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45836</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45159</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45932.5853125</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45422.48225694444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45222.45090277777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45839.93006944445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45839.93033564815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45936.42172453704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45841.41704861111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45840.43072916667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45936.45788194444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45936.38270833333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>45840.62648148148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45939.38850694444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44914</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>45705.73394675926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>45840.6295949074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45647.56972222222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44237</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45938.66181712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>45138.3071412037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45841.39582175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45938.43825231482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45705.56287037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44350</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>45152.60333333333</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45698.43287037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45842.57081018519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44644.56325231482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45842.66791666667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45842.47619212963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45842.51953703703</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45091</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44644.61106481482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45353.38880787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>45848.6125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>45848.6534837963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>45848.66167824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>45848.73256944444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45848.66987268518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45848.62001157407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45848.64788194445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45848.67424768519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45947.45381944445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45947.44309027777</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45849.6330787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45947.43479166667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45947.45197916667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>45950.42378472222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>45950.42725694444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45744.36232638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45859</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45862.62653935186</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45862.6353125</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45862.65081018519</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>45862.64581018518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45217.56513888889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>45697</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>45954.47804398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21223,7 +21223,7 @@
         <v>45954.47844907407</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>45870.38728009259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45956.86853009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>45736.58362268518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45954</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>45870</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>45956.3562037037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>45278</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>45755.50215277778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45875.62668981482</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45209.64077546296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>45877.53644675926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44831.35561342593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45877.56829861111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45103.33896990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>45877.64424768519</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45877.54615740741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>45960.41716435185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45960.32577546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45960.4140625</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45961.37528935185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45881.55274305555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45881.56083333334</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45960.34216435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>45965.61920138889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>45964.5500925926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>45831.58921296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>45628.62292824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45965.63420138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45965.64862268518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45881.54469907407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45881.56803240741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45411</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45966.54658564815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45966.61081018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45705.72799768519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44467</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45966.61395833334</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45223.62680555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45966.61878472222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45966.42188657408</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>45968.36422453704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>45971.41472222222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>45971.45525462963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45757.57952546296</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>45884.47355324074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45974.64894675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>45975.37766203703</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>45974.60144675926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>45975.38001157407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>45974.60431712963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>45975.36898148148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45887.54075231482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>45316.62592592592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45974.59688657407</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>45628.57388888889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45979.36299768519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45978.45585648148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45980.40871527778</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>45980.30490740741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>45692</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>46024.63174768518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>46024.51534722222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>45217.58891203703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>45986.56822916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45987.50958333333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>45986.52584490741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>45987.35487268519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>45986.58231481481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45987.54099537037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45757.38532407407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45987.51534722222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>45986.57303240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25546,7 +25546,7 @@
         <v>44875.36341435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45986.50476851852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45699</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45987.48171296297</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45986.56949074074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45988.52844907407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45988.4884375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45988.4934375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>46030.57034722222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45544.36310185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>46035.63864583334</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44382</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45040</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45993.35644675926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45610.58322916667</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>44460</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44391</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>46034.42577546297</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45994</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45040.56190972222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45994.43018518519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>46037.47077546296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45695</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>44424</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>46022.60030092593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>46022.6519675926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>45593.33947916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>45593.31292824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>45239.37113425926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>45999.47630787037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>45834</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45374.67886574074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44351</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45999.64672453704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45180.34207175926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>44627</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45537.65519675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45826</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45586.58081018519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45645.48501157408</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45239</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>45072</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>45146</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45203.42181712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45593.67824074074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45453</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45206.39274305556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>46016</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45674.65692129629</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45113.84923611111</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45113.8637037037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45113.85704861111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45964.45186342593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45645.46608796297</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45982.44907407407</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45999.4887037037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45104.70399305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>45593.31915509259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>46041.54016203704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>45252.34607638889</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>45950.84275462963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29100,7 +29100,7 @@
         <v>46043.43420138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>46038</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>46019</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>45768</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45610.3468287037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>46022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>46036</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>46044.41059027778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45303</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>46044.45325231482</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>46044.68712962963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45219.54077546296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>46044.37626157407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>46044</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45453.48988425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45159</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>46049.48833333333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>46049.700625</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>46049.56386574074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>45113.5812962963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>46048.36954861111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30379,7 +30379,7 @@
         <v>46049.46909722222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>45014.30054398148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>45688</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30550,7 +30550,7 @@
         <v>46009.46511574074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30607,7 +30607,7 @@
         <v>46050.73831018519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45678.42868055555</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>46050.47733796296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>46008.61351851852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>46008.64555555556</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         <v>46008.65450231481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>46008.67211805555</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>46008.60548611111</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>46050.46118055555</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>46050.46217592592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>46024</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>46024</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>46050.47840277778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>46050</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>46024</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>46008.57913194445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>46008.64875</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>46008.67696759259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31638,7 +31638,7 @@
         <v>44917.40038194445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31700,7 +31700,7 @@
         <v>46042</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31757,7 +31757,7 @@
         <v>46038</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>46008.74334490741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31871,7 +31871,7 @@
         <v>46009.85609953704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31928,7 +31928,7 @@
         <v>46010.47516203704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31985,7 +31985,7 @@
         <v>46052.42724537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32042,7 +32042,7 @@
         <v>46010.50851851852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32099,7 +32099,7 @@
         <v>46027.80430555555</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32156,7 +32156,7 @@
         <v>46013.43195601852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32213,7 +32213,7 @@
         <v>46043</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>44641</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44813.60177083333</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>46056</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>46057.67493055556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>46034.52905092593</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>46057.56788194444</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>46056</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>46034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>46022</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>46059.3959375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45638.39675925926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32902,7 +32902,7 @@
         <v>45638.39965277778</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>46048</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>46057</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>46041</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>45660</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>46058.47203703703</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45685.46236111111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45685.46390046296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45238.5996875</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45622.56038194444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45775</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45775</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45544</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>45299.63410879629</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>44872.62795138889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>45666.42952546296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33824,7 +33824,7 @@
         <v>45160.51721064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33881,7 +33881,7 @@
         <v>45565.53810185185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33938,7 +33938,7 @@
         <v>45565.54078703704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>45519.61466435185</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45748.58409722222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45203.40004629629</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45600.34721064815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45264.52465277778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>44790.66212962963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45748.58792824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45062</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>45111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34543,7 +34543,7 @@
         <v>45544.3786574074</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>45615.43141203704</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45507.46103009259</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>44481.4037962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         <v>44460.85565972222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34828,7 +34828,7 @@
         <v>44354.6446875</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45099</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>45687.42143518518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>45222.44800925926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45757.57597222222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35123,7 +35123,7 @@
         <v>44753</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45076</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
         <v>45490.64681712963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45544.35747685185</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35356,7 +35356,7 @@
         <v>45525.40091435185</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>45617.61476851852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45238</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>44622.6445949074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>45758.59981481481</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>45647.56491898148</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         <v>44887.45185185185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35755,7 +35755,7 @@
         <v>45212.67149305555</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>44732.67958333333</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>44910.36798611111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35931,7 +35931,7 @@
         <v>45610.73276620371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45699</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45699</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45628.47519675926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45610.34175925926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44448.52815972222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45554.42622685185</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>45757.55321759259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         <v>45544.34504629629</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>44711</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45593.32871527778</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45561.40730324074</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45615.50483796297</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45096.4878125</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36744,7 +36744,7 @@
         <v>44711.60145833333</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36806,7 +36806,7 @@
         <v>45628</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36863,7 +36863,7 @@
         <v>45628</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>45628.47212962963</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36977,7 +36977,7 @@
         <v>44620</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45301.40552083333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>45776</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45783.60923611111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45782.45069444444</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45782.37519675926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>44985.60604166667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45301.36821759259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>45561.40888888889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>45687.46100694445</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45784.59369212963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45440.45225694445</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45575.38193287037</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45790.73627314815</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>45790.6377662037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>45251.42627314815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>45790.73072916667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>45266</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>45790.73469907408</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>45331.38175925926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>45793.43210648148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         <v>45692</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38266,7 +38266,7 @@
         <v>44536</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>45307</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45797.40101851852</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>45615.3990162037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45797.38252314815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
